--- a/图表.xlsx
+++ b/图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201529600"/>
-        <c:axId val="209191296"/>
+        <c:axId val="192678144"/>
+        <c:axId val="200016256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201529600"/>
+        <c:axId val="192678144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209191296"/>
+        <c:crossAx val="200016256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209191296"/>
+        <c:axId val="200016256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,7 +292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201529600"/>
+        <c:crossAx val="192678144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -344,7 +344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -420,11 +419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209232640"/>
-        <c:axId val="209234176"/>
+        <c:axId val="200065792"/>
+        <c:axId val="200067328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209232640"/>
+        <c:axId val="200065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209234176"/>
+        <c:crossAx val="200067328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209234176"/>
+        <c:axId val="200067328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,14 +451,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209232640"/>
+        <c:crossAx val="200065792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
@@ -593,7 +591,7 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -1117,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
